--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -480,7 +480,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
